--- a/day1/graphs for part 1.xlsx
+++ b/day1/graphs for part 1.xlsx
@@ -1,38 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmarchetti/Library/Mobile Documents/com~apple~CloudDocs/dev/dnn-workshop/day1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76EB5BDD-D2C7-7948-9DAD-95CA91B92F2F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAC8A00-3CE0-0F45-A9CC-4F547CFF9A43}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35180" yWindow="3780" windowWidth="28040" windowHeight="17440" xr2:uid="{81816D41-8E17-5E4D-A00F-171492C1EB16}"/>
+    <workbookView xWindow="5560" yWindow="2460" windowWidth="28040" windowHeight="17440" xr2:uid="{81816D41-8E17-5E4D-A00F-171492C1EB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$2:$D$15</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1:$A$12</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$1:$A$12</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$12</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$15</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$2:$A$15</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$D$2:$D$15</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -182,48 +173,61 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$1:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>z</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2371,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C12" si="1">EXP(A3)</f>
+        <f t="shared" ref="C3:C11" si="1">EXP(A3)</f>
         <v>1.8315638888734179E-2</v>
       </c>
       <c r="D3">
